--- a/SubRES_TMPL/SubRES_New_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_New_Techs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceoll\Documents\Masters\MASTERS SELECT\AGH\IERP\ELAND-main\ELAND-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE456DCF-8EF4-4FAC-A9AE-2AEDF418319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F035327-AD8E-41B0-9037-0B2EADD1BC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="137">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1188,6 +1188,24 @@
   </si>
   <si>
     <t>EUR/kW</t>
+  </si>
+  <si>
+    <t>MIN_WIND_OFFS</t>
+  </si>
+  <si>
+    <t>NEW_WIND__OFFS_PP</t>
+  </si>
+  <si>
+    <t>WIND_OFFS</t>
+  </si>
+  <si>
+    <t>New Offshore Wind Power Plant</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Wind offshore energy supply</t>
   </si>
 </sst>
 </file>
@@ -2436,44 +2454,38 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="57" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="57" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="58" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="59" fillId="26" borderId="22" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="60" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="60" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="60" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="60" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="60" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="60" fillId="29" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="60" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="60" fillId="29" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="60" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="60" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="60" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="60" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="58" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="25" borderId="21" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2484,32 +2496,32 @@
     <xf numFmtId="0" fontId="59" fillId="31" borderId="24" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="29" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2524,13 +2536,17 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="60" fillId="28" borderId="0" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="60" fillId="29" borderId="23" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3378,25 +3394,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="32.86328125" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" customWidth="1"/>
+    <col min="7" max="8" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18.75" thickBot="1">
+    <row r="2" spans="1:10" ht="17.649999999999999" thickBot="1">
       <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
@@ -3422,157 +3438,167 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="33"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="33"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1" thickBot="1">
       <c r="A6" s="33"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="33"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="B8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="33"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="33"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="33"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
+    <row r="13" spans="1:10" ht="13.5" thickTop="1" thickBot="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3586,10 +3612,10 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="79"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
       <c r="B17" s="25" t="s">
@@ -3623,7 +3649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="13.5" thickBot="1">
+    <row r="21" spans="2:9" ht="13.15" thickBot="1">
       <c r="B21" s="28" t="s">
         <v>30</v>
       </c>
@@ -3752,20 +3778,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H8"/>
+    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.73046875" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3779,182 +3805,210 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="B9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" thickTop="1">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" thickTop="1"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.15" thickTop="1"/>
     <row r="15" spans="1:10">
       <c r="E15" s="15"/>
     </row>
@@ -4055,19 +4109,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+    <sheetView zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="11" max="13" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="27.73046875" customWidth="1"/>
+    <col min="3" max="3" width="27.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" customWidth="1"/>
+    <col min="5" max="8" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" customWidth="1"/>
+    <col min="11" max="13" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -4094,7 +4148,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:23" ht="18">
+    <row r="2" spans="1:23" ht="17.25">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>26</v>
@@ -4142,14 +4196,14 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="58"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -4164,28 +4218,28 @@
     </row>
     <row r="5" spans="1:23" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="12"/>
@@ -4202,28 +4256,28 @@
     </row>
     <row r="6" spans="1:23" ht="18.75" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="13"/>
@@ -4240,20 +4294,20 @@
     </row>
     <row r="7" spans="1:23" ht="18.75" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59" t="s">
         <v>95</v>
       </c>
       <c r="J7" s="13"/>
@@ -4269,80 +4323,92 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="60" t="str">
         <f>SEC_Processes!D7</f>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63" t="str">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61" t="str">
         <f>SEC_Comm!C7</f>
         <v>SOLAR</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="76">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="76">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="63">
         <v>2025</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="63">
         <v>100</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
+      <c r="B9" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="67">
+        <v>2025</v>
+      </c>
+      <c r="H9" s="67">
+        <v>100</v>
+      </c>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="69"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" thickTop="1"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4355,22 +4421,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A2" zoomScale="111" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="24.73046875" customWidth="1"/>
+    <col min="3" max="3" width="27.06640625" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="16.86328125" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18">
+    <row r="2" spans="2:13" ht="17.25">
       <c r="B2" s="24" t="s">
         <v>87</v>
       </c>
@@ -4382,7 +4448,7 @@
       <c r="J2" s="20"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" ht="13.15">
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="E3" s="17"/>
@@ -4392,180 +4458,202 @@
       <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="53" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="26.25" customHeight="1">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="80" t="s">
+      <c r="L6" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="78" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B8" s="52" t="str">
+      <c r="B8" s="51" t="str">
         <f>SEC_Processes!D8</f>
         <v>NEW_PV_PP</v>
       </c>
-      <c r="C8" s="52" t="str">
+      <c r="C8" s="51" t="str">
         <f>SEC_Processes!E8</f>
         <v>New PV Power Plant</v>
       </c>
-      <c r="D8" s="52" t="str">
+      <c r="D8" s="51" t="str">
         <f>MIN_IMP!D8</f>
         <v>SOLAR</v>
       </c>
-      <c r="E8" s="52" t="str">
+      <c r="E8" s="51" t="str">
         <f>SEC_Comm!C27</f>
         <v>ELC_HV</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="77">
         <v>1</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <v>0.12</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="51">
         <v>1</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52">
+      <c r="J8" s="51"/>
+      <c r="K8" s="51">
         <v>1000</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="51">
         <v>2025</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="51">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-    </row>
-    <row r="10" spans="2:13" ht="13.5" thickTop="1"/>
+      <c r="B9" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="80">
+        <v>1</v>
+      </c>
+      <c r="G9" s="51">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="H9" s="75">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I9" s="75">
+        <v>1</v>
+      </c>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75">
+        <v>2500</v>
+      </c>
+      <c r="L9" s="75">
+        <v>2025</v>
+      </c>
+      <c r="M9" s="75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="13.15" thickTop="1"/>
     <row r="12" spans="2:13">
       <c r="E12" s="15"/>
       <c r="G12" s="15"/>
@@ -4589,6 +4677,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -4732,15 +4829,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4748,6 +4836,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4761,14 +4857,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SubRES_TMPL/SubRES_New_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_New_Techs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceoll\Documents\Masters\MASTERS SELECT\AGH\IERP\ELAND-main\ELAND-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F035327-AD8E-41B0-9037-0B2EADD1BC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1C345-F864-4236-A3B1-F6EC4865D283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -1193,9 +1193,6 @@
     <t>MIN_WIND_OFFS</t>
   </si>
   <si>
-    <t>NEW_WIND__OFFS_PP</t>
-  </si>
-  <si>
     <t>WIND_OFFS</t>
   </si>
   <si>
@@ -1206,6 +1203,9 @@
   </si>
   <si>
     <t>Wind offshore energy supply</t>
+  </si>
+  <si>
+    <t>NEW_WIND_OFFS_PP</t>
   </si>
 </sst>
 </file>
@@ -2543,10 +2543,10 @@
     <xf numFmtId="0" fontId="59" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="60" fillId="29" borderId="23" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="60" fillId="29" borderId="23" xfId="339" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3394,8 +3394,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="105" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3534,10 +3534,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>89</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="80"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
       <c r="B17" s="25" t="s">
@@ -3778,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3936,7 +3936,7 @@
         <v>131</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>89</v>
@@ -3958,10 +3958,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="47" t="s">
         <v>89</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="66">
         <v>1E-3</v>
@@ -4422,7 +4422,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="111" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4619,18 +4619,18 @@
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="65" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>133</v>
       </c>
       <c r="E9" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="79">
         <v>1</v>
       </c>
       <c r="G9" s="51">
@@ -4677,12 +4677,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4830,15 +4827,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4862,17 +4870,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>